--- a/config_10.26/game_enter_btn_config.xlsx
+++ b/config_10.26/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -416,9 +416,6 @@
     </r>
   </si>
   <si>
-    <t>108#104#95#72#</t>
-  </si>
-  <si>
     <t>center2</t>
   </si>
   <si>
@@ -1515,6 +1512,10 @@
   </si>
   <si>
     <t>"act_ty_gifts","gift_hflb","enter",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>145#108#104#95#72#</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2667,7 +2668,7 @@
         <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2678,7 +2679,7 @@
         <v>65</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2758,7 +2759,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2806,8 +2807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2859,7 +2860,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2867,10 +2868,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2878,10 +2879,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,10 +2890,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2900,10 +2901,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,7 +2921,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2953,7 +2954,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3109,7 +3110,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3169,7 +3170,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3207,10 +3208,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3251,10 +3252,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3270,11 +3271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I146" sqref="I146"/>
+      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3290,22 +3291,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3313,7 +3314,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3323,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3331,7 +3332,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3341,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3349,19 +3350,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3369,7 +3370,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3379,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3387,7 +3388,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3397,7 +3398,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3405,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3415,7 +3416,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3423,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3433,7 +3434,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3441,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3451,7 +3452,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3459,7 +3460,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3469,7 +3470,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3477,7 +3478,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3487,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3495,7 +3496,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3505,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3513,7 +3514,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3523,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3531,7 +3532,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3541,7 +3542,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3549,7 +3550,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3559,7 +3560,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3567,7 +3568,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3577,7 +3578,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3585,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3595,7 +3596,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3603,7 +3604,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3613,7 +3614,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3621,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3631,7 +3632,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3639,7 +3640,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3649,7 +3650,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3657,7 +3658,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3667,7 +3668,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3675,7 +3676,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3685,7 +3686,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3693,7 +3694,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3703,7 +3704,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3711,7 +3712,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3721,7 +3722,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3729,7 +3730,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3739,7 +3740,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3747,7 +3748,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3757,7 +3758,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3765,7 +3766,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3775,7 +3776,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3783,7 +3784,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3793,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3801,7 +3802,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3811,7 +3812,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3819,7 +3820,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3829,7 +3830,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3837,7 +3838,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3847,7 +3848,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3855,7 +3856,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3865,7 +3866,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3873,7 +3874,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3883,7 +3884,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3891,7 +3892,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3901,7 +3902,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3909,7 +3910,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3919,7 +3920,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3927,7 +3928,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3937,7 +3938,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3945,7 +3946,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3955,7 +3956,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3963,7 +3964,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3973,7 +3974,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3981,7 +3982,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3991,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3999,7 +4000,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4009,7 +4010,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4017,7 +4018,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4027,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4035,7 +4036,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4044,7 +4045,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4052,7 +4053,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4061,7 +4062,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4069,7 +4070,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4078,7 +4079,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4086,7 +4087,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4095,7 +4096,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4103,7 +4104,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4112,7 +4113,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4120,7 +4121,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4129,7 +4130,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4137,7 +4138,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4146,7 +4147,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4154,7 +4155,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4163,7 +4164,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4171,7 +4172,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4180,7 +4181,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4188,7 +4189,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4197,7 +4198,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4205,7 +4206,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4214,7 +4215,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4222,7 +4223,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4231,7 +4232,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4239,7 +4240,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4249,7 +4250,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4257,7 +4258,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4266,7 +4267,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4274,7 +4275,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4283,7 +4284,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4291,7 +4292,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4300,7 +4301,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4308,7 +4309,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4317,7 +4318,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4325,7 +4326,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4334,7 +4335,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,7 +4343,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4351,7 +4352,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4359,7 +4360,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4368,7 +4369,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4376,7 +4377,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4385,7 +4386,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4393,7 +4394,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4402,7 +4403,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4410,7 +4411,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4419,7 +4420,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4427,7 +4428,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4436,7 +4437,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4444,7 +4445,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4453,7 +4454,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4461,7 +4462,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4470,7 +4471,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4478,7 +4479,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4487,7 +4488,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4495,7 +4496,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4504,7 +4505,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4512,7 +4513,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4521,7 +4522,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4529,7 +4530,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4538,7 +4539,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4546,7 +4547,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4555,7 +4556,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4563,7 +4564,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4572,7 +4573,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4580,7 +4581,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4589,7 +4590,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4597,7 +4598,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4606,7 +4607,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4614,7 +4615,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4623,7 +4624,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4631,7 +4632,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4640,7 +4641,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4648,7 +4649,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4657,7 +4658,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4665,7 +4666,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4674,7 +4675,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4682,7 +4683,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4691,7 +4692,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4699,7 +4700,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4708,7 +4709,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4716,7 +4717,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4725,7 +4726,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4733,7 +4734,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4742,7 +4743,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4750,7 +4751,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4759,7 +4760,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4767,7 +4768,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4776,7 +4777,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,7 +4785,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4793,7 +4794,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4801,7 +4802,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4810,7 +4811,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4818,19 +4819,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>260</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>261</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4838,7 +4839,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4847,7 +4848,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4855,7 +4856,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4864,7 +4865,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4872,7 +4873,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4881,7 +4882,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4889,7 +4890,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4898,7 +4899,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4906,7 +4907,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4915,7 +4916,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4923,7 +4924,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4932,7 +4933,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4940,7 +4941,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4949,7 +4950,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4957,7 +4958,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4966,7 +4967,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4974,7 +4975,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4983,7 +4984,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4991,7 +4992,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5001,7 +5002,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5009,7 +5010,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5018,7 +5019,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5026,7 +5027,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5035,7 +5036,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5043,7 +5044,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5052,7 +5053,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5060,19 +5061,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5080,7 +5081,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5089,7 +5090,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5097,7 +5098,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5106,7 +5107,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5114,7 +5115,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5123,7 +5124,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5131,19 +5132,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5151,7 +5152,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5160,7 +5161,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5168,7 +5169,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5177,7 +5178,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5185,7 +5186,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5194,7 +5195,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,7 +5203,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5211,7 +5212,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,7 +5220,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5228,7 +5229,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5236,7 +5237,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5245,7 +5246,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5253,7 +5254,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5262,7 +5263,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5270,7 +5271,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5279,7 +5280,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,7 +5288,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5296,7 +5297,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5304,19 +5305,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5324,19 +5325,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>320</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>321</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5344,7 +5345,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5353,7 +5354,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5361,7 +5362,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5370,7 +5371,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5378,7 +5379,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5387,7 +5388,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5395,7 +5396,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5404,7 +5405,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5412,7 +5413,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5421,7 +5422,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,7 +5430,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5438,7 +5439,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5446,7 +5447,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5455,7 +5456,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5463,7 +5464,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5472,7 +5473,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5480,7 +5481,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5489,7 +5490,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5497,7 +5498,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5506,7 +5507,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5514,7 +5515,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5523,7 +5524,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5531,19 +5532,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5551,19 +5552,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5571,19 +5572,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5591,19 +5592,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5611,7 +5612,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5621,7 +5622,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5629,7 +5630,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5638,7 +5639,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5646,19 +5647,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5666,19 +5667,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5686,19 +5687,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5706,19 +5707,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5726,19 +5727,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5746,7 +5747,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5756,7 +5757,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5764,19 +5765,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5784,19 +5785,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5804,19 +5805,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>362</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>363</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5824,19 +5825,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5844,7 +5845,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5853,7 +5854,7 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5861,19 +5862,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5881,19 +5882,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +5948,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6034,7 +6035,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6336,7 +6337,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>

--- a/config_10.26/game_enter_btn_config.xlsx
+++ b/config_10.26/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="21" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="389">
   <si>
     <t>id|行号</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>left</t>
-  </si>
-  <si>
-    <t>36;113;89;105#97;11;93;94#58;107#30#</t>
   </si>
   <si>
     <t>right</t>
@@ -1387,33 +1384,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>40#74#110#130#1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>39</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_061_xyhl",</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1484,8 +1454,32 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>145#108#104#95#72#</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_ty_gifts","gift_khlb","enter",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_062_hghd",</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>3;116#2#139#8#122#61#140#137#9#117#134#141#138#142#143#</t>
+      <t>36;113;89;105#97;11;93;94#</t>
     </r>
     <r>
       <rPr>
@@ -1496,7 +1490,23 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1</t>
+      <t>147#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>58;107#30#</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3;116#2#144#8#122#61#140#137#9#117#134#141#138#142#143#1</t>
     </r>
     <r>
       <rPr>
@@ -1511,11 +1521,30 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_hflb","enter",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>145#108#104#95#72#</t>
+    <r>
+      <t>40#74#110#130#144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>147#</t>
+    </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2200,7 +2229,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2243,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2291,7 +2320,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +2366,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2377,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2390,7 +2419,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2431,7 +2460,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2442,7 +2471,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2488,7 +2517,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2535,7 +2564,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2577,7 +2606,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2623,7 +2652,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2634,7 +2663,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2642,10 +2671,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -2654,10 +2683,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2665,10 +2694,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2676,10 +2705,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2687,10 +2716,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2698,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2788,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2807,7 +2836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,7 +2868,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2847,7 +2876,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -2860,7 +2889,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2868,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2879,10 +2908,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2890,10 +2919,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,10 +2930,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,7 +2983,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3110,7 +3139,7 @@
         <v>30</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3170,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3208,10 +3237,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3252,10 +3281,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3269,13 +3298,13 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A146" sqref="A146"/>
+      <selection pane="bottomRight" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3291,22 +3320,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3314,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -3324,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3332,7 +3361,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -3342,7 +3371,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -3350,19 +3379,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -3370,7 +3399,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
@@ -3380,7 +3409,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -3388,7 +3417,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -3398,7 +3427,7 @@
         <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -3406,7 +3435,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -3416,7 +3445,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -3424,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
@@ -3434,7 +3463,7 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3442,7 +3471,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
@@ -3452,7 +3481,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -3460,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
@@ -3470,7 +3499,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -3478,7 +3507,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
@@ -3488,7 +3517,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3496,7 +3525,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
@@ -3506,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3514,7 +3543,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
@@ -3524,7 +3553,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3532,7 +3561,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5">
         <v>0</v>
@@ -3542,7 +3571,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3550,7 +3579,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -3560,7 +3589,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3568,7 +3597,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -3578,7 +3607,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3586,7 +3615,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
@@ -3596,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3604,7 +3633,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -3614,7 +3643,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3622,7 +3651,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
@@ -3632,7 +3661,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3640,7 +3669,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
@@ -3650,7 +3679,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3658,7 +3687,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
@@ -3668,7 +3697,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3676,7 +3705,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C22" s="5">
         <v>0</v>
@@ -3686,7 +3715,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3694,7 +3723,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C23" s="5">
         <v>0</v>
@@ -3704,7 +3733,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3712,7 +3741,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
@@ -3722,7 +3751,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3730,7 +3759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
@@ -3740,7 +3769,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3748,7 +3777,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C26" s="5">
         <v>1</v>
@@ -3758,7 +3787,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3766,7 +3795,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5">
         <v>1</v>
@@ -3776,7 +3805,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3784,7 +3813,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C28" s="5">
         <v>1</v>
@@ -3794,7 +3823,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3802,7 +3831,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" s="5">
         <v>0</v>
@@ -3812,7 +3841,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3820,7 +3849,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -3830,7 +3859,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3838,7 +3867,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C31" s="5">
         <v>1</v>
@@ -3848,7 +3877,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3856,7 +3885,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -3866,7 +3895,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3874,7 +3903,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -3884,7 +3913,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3892,7 +3921,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -3902,7 +3931,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3910,7 +3939,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C35" s="5">
         <v>1</v>
@@ -3920,7 +3949,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3928,7 +3957,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36" s="5">
         <v>1</v>
@@ -3938,7 +3967,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3946,7 +3975,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="5">
         <v>1</v>
@@ -3956,7 +3985,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3964,7 +3993,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="5">
         <v>1</v>
@@ -3974,7 +4003,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3982,7 +4011,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" s="5">
         <v>1</v>
@@ -3992,7 +4021,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4000,7 +4029,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" s="5">
         <v>1</v>
@@ -4010,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4018,7 +4047,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="5">
         <v>1</v>
@@ -4028,7 +4057,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -4036,7 +4065,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4045,7 +4074,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4053,7 +4082,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4062,7 +4091,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4070,7 +4099,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4079,7 +4108,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4087,7 +4116,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4096,7 +4125,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4104,7 +4133,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4113,7 +4142,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4121,7 +4150,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4130,7 +4159,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4138,7 +4167,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4147,7 +4176,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4155,7 +4184,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4164,7 +4193,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4172,7 +4201,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4181,7 +4210,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4189,7 +4218,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4198,7 +4227,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4206,7 +4235,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4215,7 +4244,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4223,7 +4252,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4232,7 +4261,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,7 +4269,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -4250,7 +4279,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4258,7 +4287,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4267,7 +4296,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4275,7 +4304,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4284,7 +4313,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4292,7 +4321,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4301,7 +4330,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4309,7 +4338,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4318,7 +4347,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4326,7 +4355,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4335,7 +4364,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4343,7 +4372,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4352,7 +4381,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4360,7 +4389,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4369,7 +4398,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4377,7 +4406,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4386,7 +4415,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,7 +4423,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4403,7 +4432,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4411,7 +4440,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4420,7 +4449,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4428,7 +4457,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4437,7 +4466,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4445,7 +4474,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4454,7 +4483,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4462,7 +4491,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4471,7 +4500,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4479,7 +4508,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4488,7 +4517,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4496,7 +4525,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4505,7 +4534,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4513,7 +4542,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4522,7 +4551,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4530,7 +4559,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4539,7 +4568,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4547,7 +4576,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4556,7 +4585,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4564,7 +4593,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4573,7 +4602,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4581,7 +4610,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4590,7 +4619,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4598,7 +4627,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4607,7 +4636,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4615,7 +4644,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4624,7 +4653,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4632,7 +4661,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4641,7 +4670,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4649,7 +4678,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4658,7 +4687,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4666,7 +4695,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4675,7 +4704,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4683,7 +4712,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4692,7 +4721,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4700,7 +4729,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4709,7 +4738,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4717,7 +4746,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4726,7 +4755,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4734,7 +4763,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4743,7 +4772,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4751,7 +4780,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4760,7 +4789,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4768,7 +4797,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4777,7 +4806,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4785,7 +4814,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4794,7 +4823,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4802,7 +4831,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4811,7 +4840,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4819,19 +4848,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>260</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4839,7 +4868,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4848,7 +4877,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4856,7 +4885,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4865,7 +4894,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4873,7 +4902,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4882,7 +4911,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4890,7 +4919,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4899,7 +4928,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4907,7 +4936,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4916,7 +4945,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4924,7 +4953,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -4933,7 +4962,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4941,7 +4970,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4950,7 +4979,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4958,7 +4987,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4967,7 +4996,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4975,7 +5004,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4984,7 +5013,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4992,7 +5021,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5002,7 +5031,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5010,7 +5039,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5019,7 +5048,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5027,7 +5056,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5036,7 +5065,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5044,7 +5073,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5053,7 +5082,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5061,19 +5090,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>288</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5081,7 +5110,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C103" s="1">
         <v>1</v>
@@ -5090,7 +5119,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5098,7 +5127,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5107,7 +5136,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5115,7 +5144,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C105" s="2">
         <v>1</v>
@@ -5124,7 +5153,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5132,19 +5161,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>296</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>297</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5152,7 +5181,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5161,7 +5190,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5169,7 +5198,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5178,7 +5207,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5186,7 +5215,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5195,7 +5224,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5203,7 +5232,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5212,7 +5241,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5220,7 +5249,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5229,7 +5258,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5237,7 +5266,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5246,7 +5275,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5254,7 +5283,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5263,7 +5292,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5271,7 +5300,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5280,7 +5309,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5288,7 +5317,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5297,7 +5326,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5305,19 +5334,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5325,19 +5354,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>319</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>320</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5345,7 +5374,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5354,7 +5383,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5362,7 +5391,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5371,7 +5400,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5379,7 +5408,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5388,7 +5417,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5396,7 +5425,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5405,7 +5434,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5413,7 +5442,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5422,7 +5451,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5430,7 +5459,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5439,7 +5468,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5447,7 +5476,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5456,7 +5485,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5464,7 +5493,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5473,7 +5502,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5481,7 +5510,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5490,7 +5519,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5498,7 +5527,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5507,7 +5536,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5515,7 +5544,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5524,7 +5553,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -5532,19 +5561,19 @@
         <v>128</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E129">
         <v>128</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -5552,19 +5581,19 @@
         <v>129</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E130">
         <v>129</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -5572,19 +5601,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C131" s="5">
         <v>1</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E131" s="5">
         <v>130</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -5592,19 +5621,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C132" s="5">
         <v>1</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E132" s="5">
         <v>131</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -5612,7 +5641,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="28" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C133" s="5">
         <v>1</v>
@@ -5622,7 +5651,7 @@
         <v>132</v>
       </c>
       <c r="F133" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -5630,7 +5659,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C134" s="5">
         <v>1</v>
@@ -5639,7 +5668,7 @@
         <v>133</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5647,19 +5676,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E135">
         <v>134</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -5667,19 +5696,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136">
         <v>0</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E136">
         <v>135</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -5687,19 +5716,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E137">
         <v>136</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5707,19 +5736,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E138">
         <v>137</v>
       </c>
       <c r="F138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5727,19 +5756,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E139">
         <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -5747,7 +5776,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -5757,7 +5786,7 @@
         <v>139</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5765,19 +5794,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" s="29" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E141">
         <v>140</v>
       </c>
       <c r="F141" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5785,19 +5814,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E142">
         <v>141</v>
       </c>
       <c r="F142" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5805,19 +5834,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
         <v>361</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>362</v>
       </c>
       <c r="E143">
         <v>142</v>
       </c>
       <c r="F143" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5825,19 +5854,19 @@
         <v>143</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E144">
         <v>143</v>
       </c>
       <c r="F144" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5845,7 +5874,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5854,7 +5883,7 @@
         <v>144</v>
       </c>
       <c r="F145" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5862,19 +5891,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" s="29" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="E146">
         <v>145</v>
       </c>
       <c r="F146" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
@@ -5882,19 +5911,39 @@
         <v>146</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E147">
         <v>146</v>
       </c>
       <c r="F147" t="s">
-        <v>377</v>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E148">
+        <v>147</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -5948,7 +5997,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6035,7 +6084,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6298,15 +6347,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.25" style="17" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="60" style="23" customWidth="1"/>
+    <col min="3" max="3" width="80.75" style="23" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="23" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="23" customWidth="1"/>
     <col min="6" max="16384" width="9" style="23"/>
@@ -6337,7 +6386,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D2" s="5">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -6355,8 +6404,8 @@
       <c r="B3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>37</v>
+      <c r="C3" s="30" t="s">
+        <v>386</v>
       </c>
       <c r="D3" s="5">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -6376,10 +6425,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>38</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>39</v>
       </c>
       <c r="D4" s="5">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6398,7 +6447,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5">
         <f>'all_enter|所有按钮入口'!E5</f>
@@ -6415,10 +6464,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>42</v>
       </c>
       <c r="D6" s="5">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -6434,10 +6483,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>43</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="5">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -6453,10 +6502,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="D8" s="5">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6472,10 +6521,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="D9" s="5">
         <f>'all_enter|所有按钮入口'!E9</f>
